--- a/结果.xlsx
+++ b/结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20543" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>REID结果统计</t>
   </si>
@@ -199,6 +199,9 @@
       </rPr>
       <t>PCB-batch 64</t>
     </r>
+  </si>
+  <si>
+    <t>真实结果偏高</t>
   </si>
   <si>
     <r>
@@ -351,6 +354,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -365,50 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -417,16 +405,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,40 +436,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,6 +459,38 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -521,73 +524,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,109 +698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +715,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -748,41 +781,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,21 +815,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -820,10 +823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,137 +835,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,9 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1076,16 +1076,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>784225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>401320</xdr:rowOff>
+      <xdr:rowOff>85090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1102,8 +1102,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10858500" y="830580"/>
-          <a:ext cx="9136380" cy="3482340"/>
+          <a:off x="8670925" y="525780"/>
+          <a:ext cx="9106535" cy="3470910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1124,7 +1124,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="5F616C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1406,10 +1406,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="F10:I10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1562,7 +1562,7 @@
         <v>635447</v>
       </c>
     </row>
-    <row r="7" ht="35" customHeight="1" spans="1:13">
+    <row r="7" ht="35" customHeight="1" spans="1:14">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1578,16 +1578,16 @@
       <c r="E7" s="7">
         <v>0.775408</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <v>0.819578</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <v>0.897187</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <v>0.916691</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="7">
         <v>0.653088</v>
       </c>
       <c r="J7" s="7">
@@ -1602,10 +1602,13 @@
       <c r="M7" s="7">
         <v>0.71088</v>
       </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:9">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
+      <c r="A8" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1625,14 +1628,14 @@
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:10">
-      <c r="A9" s="12" t="s">
-        <v>14</v>
+      <c r="A9" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>0.843357</v>
       </c>
       <c r="G9" s="7">
@@ -1644,11 +1647,11 @@
       <c r="I9" s="7">
         <v>0.695396</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:9">
-      <c r="A10" s="14" t="s">
-        <v>15</v>
+      <c r="A10" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="7">
         <v>0.997922</v>

--- a/结果.xlsx
+++ b/结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20543" windowHeight="9120"/>
+    <workbookView windowWidth="13725" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>REID结果统计</t>
   </si>
@@ -274,6 +274,9 @@
   <si>
     <t>Complex-PCB-32-LR0.02</t>
   </si>
+  <si>
+    <t>DenseNet-121</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +288,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +349,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -354,14 +392,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,14 +415,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,93 +477,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,187 +533,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,8 +760,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,7 +770,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,26 +824,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -823,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,137 +844,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +1016,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1102,8 +1114,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8670925" y="525780"/>
-          <a:ext cx="9106535" cy="3470910"/>
+          <a:off x="9546590" y="525780"/>
+          <a:ext cx="10194925" cy="3470910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1408,22 +1420,22 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="13.4444444444444" customWidth="1"/>
-    <col min="4" max="5" width="11.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="13.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" customWidth="1"/>
+    <col min="4" max="5" width="11.775" customWidth="1"/>
+    <col min="6" max="6" width="13.775" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="10.5583333333333" customWidth="1"/>
     <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
-    <col min="10" max="12" width="10.5555555555556"/>
-    <col min="13" max="13" width="9.44444444444444"/>
+    <col min="10" max="12" width="10.5583333333333"/>
+    <col min="13" max="13" width="9.44166666666667"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:11">
@@ -1441,7 +1453,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" ht="15.6" spans="1:13">
+    <row r="2" ht="15.75" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1462,7 +1474,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="14.25" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1659,7 @@
       <c r="I9" s="7">
         <v>0.695396</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:9">
       <c r="A10" s="13" t="s">
@@ -1678,8 +1690,39 @@
         <v>0.425499</v>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1"/>
-    <row r="12" ht="33" customHeight="1"/>
+    <row r="11" ht="34" customHeight="1" spans="1:9">
+      <c r="A11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.901722</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.962292</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.974762</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.740243</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.816876</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.90395</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.931777</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.646141</v>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="2:6">
+      <c r="B12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
@@ -1703,7 +1746,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1720,7 +1763,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
